--- a/Vuelos.xlsx
+++ b/Vuelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QualtopGroup\git\RetoCONTPAQi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49A4BA7-F7BF-4804-AB5A-5B075D46F71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BCAE35-7DD5-4BE7-8EB5-C6B6609309A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" xr2:uid="{440657A7-BD11-4302-B17A-5E3EB1248650}"/>
+    <workbookView xWindow="-27630" yWindow="270" windowWidth="21600" windowHeight="11835" xr2:uid="{440657A7-BD11-4302-B17A-5E3EB1248650}"/>
   </bookViews>
   <sheets>
     <sheet name="VuelosPorReservar" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Tipo</t>
   </si>
@@ -58,9 +58,6 @@
     <t>oneway</t>
   </si>
   <si>
-    <t>Acapulco</t>
-  </si>
-  <si>
     <t>London</t>
   </si>
   <si>
@@ -94,27 +91,9 @@
     <t>Paris</t>
   </si>
   <si>
-    <t>Portland</t>
-  </si>
-  <si>
-    <t>San Francisco</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>Sidney</t>
-  </si>
-  <si>
     <t>Zurich</t>
   </si>
   <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Euan</t>
-  </si>
-  <si>
     <t>Guillermo</t>
   </si>
   <si>
@@ -125,30 +104,6 @@
   </si>
   <si>
     <t>Murillo</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Rochin</t>
-  </si>
-  <si>
-    <t>Armando</t>
-  </si>
-  <si>
-    <t>Mayon</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Perales</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>Gracia</t>
   </si>
   <si>
     <t>E</t>
@@ -515,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BAB3DB-0909-4BC8-8591-FF4A4FFFB436}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +481,7 @@
     <col min="1" max="5" width="13.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,9 +497,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -552,16 +506,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -569,16 +523,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -586,16 +540,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -603,16 +557,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -620,111 +574,27 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42F9DB0-626E-49BC-B5E2-A767DFA08527}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B6" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,87 +608,47 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
